--- a/resources/template/accounting/_surplus.xlsx
+++ b/resources/template/accounting/_surplus.xlsx
@@ -24,9 +24,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Товары</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Всего наименований {count} на сумму {amount}</t>
+  </si>
+  <si>
+    <t>Товар</t>
   </si>
 </sst>
 </file>
@@ -227,6 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -238,9 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <dimension ref="B2:BE18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -545,28 +545,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -576,22 +576,22 @@
         <v>0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="7"/>
@@ -630,10 +630,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -641,26 +641,26 @@
       <c r="H12" s="9"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
@@ -673,15 +673,15 @@
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="E18" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
